--- a/data/meta/Geographic regions in 4 colors.xlsx
+++ b/data/meta/Geographic regions in 4 colors.xlsx
@@ -22,63 +22,66 @@
     <t>Geographic regions in 4 colors</t>
   </si>
   <si>
+    <t>not used yet</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
     <t>Datacollection</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>http://spreadsheets.google.com/pub?key=pk7kRzzfckbzz4AmH_e3DNA</t>
   </si>
   <si>
+    <t>Abkhazia</t>
+  </si>
+  <si>
+    <t>[Europe]</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>[Asia]</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Akrotiri and Dhekelia</t>
+  </si>
+  <si>
     <t>Source name</t>
   </si>
   <si>
+    <t>Akrotiri_Dhekelia</t>
+  </si>
+  <si>
     <t>Gapminder Geographic Regions in 4</t>
   </si>
   <si>
+    <t>Åland</t>
+  </si>
+  <si>
     <t>Source link</t>
   </si>
   <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
     <t>https://spreadsheets.google.com/spreadsheet/pub?key=0ArfEDsV3bBwCdHlocWJBM1Uyd1ZPeHduU3c4WGplMEE&amp;gid=1</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Abkhazia</t>
-  </si>
-  <si>
-    <t>[Europe]</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>[Asia]</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Akrotiri and Dhekelia</t>
-  </si>
-  <si>
-    <t>Akrotiri_Dhekelia</t>
-  </si>
-  <si>
-    <t>Åland</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -157,6 +160,12 @@
     <t>Azerbaijan</t>
   </si>
   <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>COLOR_CATEGORIES_1_EN</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -1589,15 +1598,6 @@
   </si>
   <si>
     <t>ZW</t>
-  </si>
-  <si>
-    <t>not used yet</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>COLOR_CATEGORIES_1_EN</t>
   </si>
 </sst>
 </file>
@@ -1615,6 +1615,12 @@
       <color rgb="FF010000"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font/>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
@@ -1623,12 +1629,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF333333"/>
@@ -1681,20 +1681,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
@@ -1716,19 +1716,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1755,26 +1755,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1799,57 +1799,57 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1857,2805 +1857,2805 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>33</v>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8" t="s">
         <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
         <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="8" t="s">
         <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
         <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
         <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>10</v>
+        <v>222</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>420</v>
+        <v>24</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>507</v>
+        <v>509</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>509</v>
+        <v>511</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>513</v>
+        <v>515</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>522</v>
+        <v>524</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="261">
@@ -4680,7 +4680,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>525</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4702,10 +4702,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>526</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>527</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
